--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -707,10 +719,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -754,28 +766,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -800,28 +812,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -927,28 +939,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -973,28 +985,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1284,10 +1296,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1331,28 +1343,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1377,28 +1389,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1457,10 +1469,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1504,28 +1516,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1550,28 +1562,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1630,10 +1642,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1677,28 +1689,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1723,28 +1735,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1803,10 +1815,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1850,28 +1862,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1896,28 +1908,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1976,10 +1988,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2023,28 +2035,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2069,28 +2081,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2149,10 +2161,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2196,28 +2208,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2242,28 +2254,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2322,10 +2334,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2369,28 +2381,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2415,28 +2427,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2495,10 +2507,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2542,28 +2554,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2588,28 +2600,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2668,10 +2680,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2715,28 +2727,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2761,28 +2773,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2841,10 +2853,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2888,28 +2900,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2934,28 +2946,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3014,10 +3026,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3061,28 +3073,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3107,28 +3119,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3187,10 +3199,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3234,28 +3246,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3280,28 +3292,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3389,10 +3401,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3436,28 +3448,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3482,28 +3494,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3562,10 +3574,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3609,28 +3621,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3655,28 +3667,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3735,10 +3747,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3782,28 +3794,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3828,28 +3840,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3908,10 +3920,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3955,28 +3967,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4001,28 +4013,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4081,10 +4093,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4128,28 +4140,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4174,28 +4186,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4283,10 +4295,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4330,28 +4342,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4376,28 +4388,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4456,10 +4468,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4549,28 +4561,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4629,10 +4641,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4676,28 +4688,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4722,28 +4734,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4802,10 +4814,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4849,28 +4861,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4895,28 +4907,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4975,10 +4987,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5022,28 +5034,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5068,28 +5080,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5235,10 +5247,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5328,28 +5340,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5408,10 +5420,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5455,28 +5467,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5501,28 +5513,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5581,10 +5593,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5628,28 +5640,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5674,28 +5686,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5783,10 +5795,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5876,28 +5888,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5956,10 +5968,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6049,28 +6061,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6129,10 +6141,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6176,28 +6188,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6222,28 +6234,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6302,10 +6314,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6349,28 +6361,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6395,28 +6407,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6475,10 +6487,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6522,28 +6534,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6568,28 +6580,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6648,10 +6660,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6695,28 +6707,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6741,28 +6753,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6821,10 +6833,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6868,28 +6880,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6914,28 +6926,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6994,10 +7006,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7041,28 +7053,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7087,28 +7099,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7167,10 +7179,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7214,28 +7226,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7260,28 +7272,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7340,10 +7352,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7387,28 +7399,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7433,28 +7445,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7513,10 +7525,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7560,28 +7572,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7606,28 +7618,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7686,10 +7698,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7733,28 +7745,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7779,28 +7791,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7859,10 +7871,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7906,28 +7918,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7952,28 +7964,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8032,10 +8044,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8079,28 +8091,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8125,28 +8137,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8205,10 +8217,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8252,28 +8264,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8298,28 +8310,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8378,10 +8390,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8425,28 +8437,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8471,28 +8483,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8551,10 +8563,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8598,28 +8610,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8644,28 +8656,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8724,10 +8736,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8771,28 +8783,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8817,28 +8829,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8897,10 +8909,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8944,28 +8956,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8990,28 +9002,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9099,10 +9111,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9146,28 +9158,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9192,28 +9204,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9272,10 +9284,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9319,28 +9331,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9365,28 +9377,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9445,10 +9457,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9492,28 +9504,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9538,28 +9550,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9618,10 +9630,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9665,28 +9677,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9711,28 +9723,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9791,10 +9803,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9838,28 +9850,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9884,28 +9896,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9964,10 +9976,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10011,28 +10023,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10057,28 +10069,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10137,10 +10149,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10184,28 +10196,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10230,28 +10242,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10310,10 +10322,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10357,28 +10369,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10403,28 +10415,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10483,10 +10495,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10530,28 +10542,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10576,28 +10588,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10656,10 +10668,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10703,28 +10715,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10749,28 +10761,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10829,10 +10841,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10876,28 +10888,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10922,28 +10934,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11002,10 +11014,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11049,28 +11061,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11095,28 +11107,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11175,10 +11187,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11222,28 +11234,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11268,28 +11280,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11348,10 +11360,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="2" t="s">
+      <c r="J389" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11395,28 +11407,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="2">
+      <c r="A391" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="2">
+      <c r="C391" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11441,28 +11453,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="2">
+      <c r="C393" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="2">
+      <c r="D393" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="2">
+      <c r="I393" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11521,10 +11533,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="2" t="s">
+      <c r="J395" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11568,28 +11580,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="2">
+      <c r="A397" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="2">
+      <c r="C397" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11614,28 +11626,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="2">
+      <c r="C399" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="2">
+      <c r="D399" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="2">
+      <c r="I399" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11694,10 +11706,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="2" t="s">
+      <c r="J401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11741,28 +11753,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="2">
+      <c r="A403" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="2">
+      <c r="C403" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11787,28 +11799,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="2">
+      <c r="B405" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="2">
+      <c r="C405" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="2">
+      <c r="D405" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="2">
+      <c r="E405" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="2">
+      <c r="F405" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="2">
+      <c r="G405" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="2">
+      <c r="H405" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="2">
+      <c r="I405" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11867,10 +11879,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="2" t="s">
+      <c r="J407" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11914,28 +11926,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="2">
+      <c r="A409" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="2">
+      <c r="C409" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11960,28 +11972,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="2">
+      <c r="B411" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="2">
+      <c r="C411" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="2">
+      <c r="D411" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="2">
+      <c r="E411" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="2">
+      <c r="F411" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="2">
+      <c r="G411" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="2">
+      <c r="H411" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="2">
+      <c r="I411" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12040,10 +12052,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="2" t="s">
+      <c r="J413" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12087,28 +12099,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="2">
+      <c r="A415" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="2">
+      <c r="C415" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12133,28 +12145,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="2">
+      <c r="C417" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="2">
+      <c r="D417" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="2">
+      <c r="I417" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12213,10 +12225,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="2" t="s">
+      <c r="J419" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12260,28 +12272,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="2">
+      <c r="A421" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="2">
+      <c r="C421" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12306,28 +12318,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="2">
+      <c r="C423" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="2">
+      <c r="D423" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="2">
+      <c r="I423" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12386,10 +12398,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="2" t="s">
+      <c r="J425" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12433,28 +12445,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="2">
+      <c r="A427" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="2">
+      <c r="C427" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12479,28 +12491,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="2">
+      <c r="B429" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="2">
+      <c r="C429" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="2">
+      <c r="D429" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="2">
+      <c r="E429" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="2">
+      <c r="F429" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="2">
+      <c r="G429" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="2">
+      <c r="H429" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="2">
+      <c r="I429" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12559,10 +12571,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="2" t="s">
+      <c r="J431" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12606,28 +12618,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="2">
+      <c r="A433" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="2">
+      <c r="B433" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="2">
+      <c r="C433" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="2">
+      <c r="E433" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="2">
+      <c r="F433" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="2">
+      <c r="G433" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="2">
+      <c r="H433" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12652,28 +12664,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="2">
+      <c r="B435" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="2">
+      <c r="C435" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="2">
+      <c r="D435" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="2">
+      <c r="E435" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="2">
+      <c r="F435" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="2">
+      <c r="G435" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="2">
+      <c r="H435" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="2">
+      <c r="I435" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12761,10 +12773,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="2" t="s">
+      <c r="J438" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12808,28 +12820,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="2">
+      <c r="A440" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="2">
+      <c r="B440" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="2">
+      <c r="C440" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="2">
+      <c r="E440" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="2">
+      <c r="F440" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="2">
+      <c r="G440" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="2">
+      <c r="H440" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12854,28 +12866,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="2">
+      <c r="C442" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="2">
+      <c r="D442" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="2">
+      <c r="I442" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12934,10 +12946,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="2" t="s">
+      <c r="J444" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12981,28 +12993,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="2">
+      <c r="A446" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="2">
+      <c r="C446" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13027,28 +13039,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="2">
+      <c r="C448" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="2">
+      <c r="D448" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="2">
+      <c r="I448" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13107,10 +13119,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="2" t="s">
+      <c r="J450" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13154,28 +13166,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="2">
+      <c r="A452" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="2">
+      <c r="C452" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13200,28 +13212,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="2">
+      <c r="C454" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="2">
+      <c r="D454" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="2">
+      <c r="I454" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13280,10 +13292,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="2" t="s">
+      <c r="J456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13327,28 +13339,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="2">
+      <c r="A458" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="2">
+      <c r="C458" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13373,28 +13385,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="2">
+      <c r="B460" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="2">
+      <c r="C460" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="2">
+      <c r="D460" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="2">
+      <c r="E460" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="2">
+      <c r="F460" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="2">
+      <c r="G460" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="2">
+      <c r="H460" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="2">
+      <c r="I460" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13453,10 +13465,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="2" t="s">
+      <c r="J462" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13500,28 +13512,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="2">
+      <c r="A464" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="2">
+      <c r="C464" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13546,28 +13558,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="2">
+      <c r="B466" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="2">
+      <c r="C466" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="2">
+      <c r="D466" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="2">
+      <c r="E466" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="2">
+      <c r="F466" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="2">
+      <c r="G466" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="2">
+      <c r="H466" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="2">
+      <c r="I466" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13626,10 +13638,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="2" t="s">
+      <c r="J468" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13673,28 +13685,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="2">
+      <c r="A470" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="2">
+      <c r="B470" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="2">
+      <c r="C470" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="2">
+      <c r="E470" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="2">
+      <c r="F470" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="2">
+      <c r="G470" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="2">
+      <c r="H470" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13719,28 +13731,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="2">
+      <c r="B472" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="2">
+      <c r="C472" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="2">
+      <c r="D472" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="2">
+      <c r="E472" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="2">
+      <c r="F472" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="2">
+      <c r="G472" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="2">
+      <c r="H472" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="2">
+      <c r="I472" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13799,10 +13811,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="2" t="s">
+      <c r="J474" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13846,28 +13858,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="2">
+      <c r="A476" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="2">
+      <c r="B476" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="2">
+      <c r="C476" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="2">
+      <c r="E476" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="2">
+      <c r="F476" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="2">
+      <c r="G476" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="2">
+      <c r="H476" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13892,28 +13904,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="2">
+      <c r="B478" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="2">
+      <c r="C478" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="2">
+      <c r="D478" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="2">
+      <c r="E478" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="2">
+      <c r="F478" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="2">
+      <c r="G478" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="2">
+      <c r="H478" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="2">
+      <c r="I478" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13972,10 +13984,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="2" t="s">
+      <c r="J480" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14019,28 +14031,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="2">
+      <c r="A482" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="2">
+      <c r="B482" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="2">
+      <c r="C482" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="2">
+      <c r="E482" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="2">
+      <c r="F482" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="2">
+      <c r="G482" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="2">
+      <c r="H482" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14065,28 +14077,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="2">
+      <c r="B484" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="2">
+      <c r="C484" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="2">
+      <c r="D484" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="2">
+      <c r="E484" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="2">
+      <c r="F484" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="2">
+      <c r="G484" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="2">
+      <c r="H484" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="2">
+      <c r="I484" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14145,10 +14157,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="2" t="s">
+      <c r="J486" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
@@ -14192,28 +14204,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="s" s="2">
+      <c r="A488" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B488" t="s" s="2">
+      <c r="B488" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C488" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D488" t="s" s="2">
+      <c r="C488" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D488" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E488" t="s" s="2">
+      <c r="E488" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F488" t="s" s="2">
+      <c r="F488" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G488" t="s" s="2">
+      <c r="G488" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H488" t="s" s="2">
+      <c r="H488" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14238,28 +14250,28 @@
       </c>
     </row>
     <row r="490">
-      <c r="B490" t="s" s="2">
+      <c r="B490" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C490" t="s" s="2">
+      <c r="C490" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D490" t="s" s="2">
+      <c r="D490" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E490" t="s" s="2">
+      <c r="E490" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F490" t="s" s="2">
+      <c r="F490" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G490" t="s" s="2">
+      <c r="G490" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H490" t="s" s="2">
+      <c r="H490" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I490" t="s" s="2">
+      <c r="I490" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14318,10 +14330,10 @@
       <c r="I492">
         <f>((C492-C491)^2+(D492- D491)^2)^.5</f>
       </c>
-      <c r="J492" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K492" s="2" t="s">
+      <c r="J492" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K492" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L492" t="n">
@@ -14365,28 +14377,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="s" s="2">
+      <c r="A494" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B494" t="s" s="2">
+      <c r="B494" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C494" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D494" t="s" s="2">
+      <c r="C494" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D494" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E494" t="s" s="2">
+      <c r="E494" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F494" t="s" s="2">
+      <c r="F494" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G494" t="s" s="2">
+      <c r="G494" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H494" t="s" s="2">
+      <c r="H494" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14411,28 +14423,28 @@
       </c>
     </row>
     <row r="496">
-      <c r="B496" t="s" s="2">
+      <c r="B496" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C496" t="s" s="2">
+      <c r="C496" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D496" t="s" s="2">
+      <c r="D496" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E496" t="s" s="2">
+      <c r="E496" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F496" t="s" s="2">
+      <c r="F496" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G496" t="s" s="2">
+      <c r="G496" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H496" t="s" s="2">
+      <c r="H496" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I496" t="s" s="2">
+      <c r="I496" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14491,10 +14503,10 @@
       <c r="I498">
         <f>((C498-C497)^2+(D498- D497)^2)^.5</f>
       </c>
-      <c r="J498" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K498" s="2" t="s">
+      <c r="J498" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K498" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L498" t="n">
@@ -14538,28 +14550,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="s" s="2">
+      <c r="A500" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B500" t="s" s="2">
+      <c r="B500" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C500" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D500" t="s" s="2">
+      <c r="C500" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D500" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E500" t="s" s="2">
+      <c r="E500" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F500" t="s" s="2">
+      <c r="F500" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G500" t="s" s="2">
+      <c r="G500" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H500" t="s" s="2">
+      <c r="H500" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14584,28 +14596,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="B502" t="s" s="2">
+      <c r="B502" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C502" t="s" s="2">
+      <c r="C502" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D502" t="s" s="2">
+      <c r="D502" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E502" t="s" s="2">
+      <c r="E502" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F502" t="s" s="2">
+      <c r="F502" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G502" t="s" s="2">
+      <c r="G502" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H502" t="s" s="2">
+      <c r="H502" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I502" t="s" s="2">
+      <c r="I502" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14664,10 +14676,10 @@
       <c r="I504">
         <f>((C504-C503)^2+(D504- D503)^2)^.5</f>
       </c>
-      <c r="J504" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K504" s="2" t="s">
+      <c r="J504" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K504" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L504" t="n">
@@ -14711,28 +14723,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="s" s="2">
+      <c r="A506" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B506" t="s" s="2">
+      <c r="B506" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C506" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D506" t="s" s="2">
+      <c r="C506" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D506" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E506" t="s" s="2">
+      <c r="E506" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F506" t="s" s="2">
+      <c r="F506" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G506" t="s" s="2">
+      <c r="G506" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H506" t="s" s="2">
+      <c r="H506" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14757,28 +14769,28 @@
       </c>
     </row>
     <row r="508">
-      <c r="B508" t="s" s="2">
+      <c r="B508" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C508" t="s" s="2">
+      <c r="C508" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D508" t="s" s="2">
+      <c r="D508" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E508" t="s" s="2">
+      <c r="E508" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F508" t="s" s="2">
+      <c r="F508" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G508" t="s" s="2">
+      <c r="G508" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H508" t="s" s="2">
+      <c r="H508" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I508" t="s" s="2">
+      <c r="I508" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14837,10 +14849,10 @@
       <c r="I510">
         <f>((C510-C509)^2+(D510- D509)^2)^.5</f>
       </c>
-      <c r="J510" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K510" s="2" t="s">
+      <c r="J510" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K510" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L510" t="n">
@@ -14884,28 +14896,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="s" s="2">
+      <c r="A512" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B512" t="s" s="2">
+      <c r="B512" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C512" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D512" t="s" s="2">
+      <c r="C512" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D512" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E512" t="s" s="2">
+      <c r="E512" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F512" t="s" s="2">
+      <c r="F512" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G512" t="s" s="2">
+      <c r="G512" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H512" t="s" s="2">
+      <c r="H512" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14930,28 +14942,28 @@
       </c>
     </row>
     <row r="514">
-      <c r="B514" t="s" s="2">
+      <c r="B514" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C514" t="s" s="2">
+      <c r="C514" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D514" t="s" s="2">
+      <c r="D514" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E514" t="s" s="2">
+      <c r="E514" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F514" t="s" s="2">
+      <c r="F514" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G514" t="s" s="2">
+      <c r="G514" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H514" t="s" s="2">
+      <c r="H514" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I514" t="s" s="2">
+      <c r="I514" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15010,10 +15022,10 @@
       <c r="I516">
         <f>((C516-C515)^2+(D516- D515)^2)^.5</f>
       </c>
-      <c r="J516" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K516" s="2" t="s">
+      <c r="J516" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K516" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L516" t="n">
@@ -15057,28 +15069,28 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="s" s="2">
+      <c r="A518" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B518" t="s" s="2">
+      <c r="B518" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C518" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D518" t="s" s="2">
+      <c r="C518" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D518" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E518" t="s" s="2">
+      <c r="E518" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F518" t="s" s="2">
+      <c r="F518" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G518" t="s" s="2">
+      <c r="G518" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H518" t="s" s="2">
+      <c r="H518" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15103,28 +15115,28 @@
       </c>
     </row>
     <row r="520">
-      <c r="B520" t="s" s="2">
+      <c r="B520" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C520" t="s" s="2">
+      <c r="C520" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D520" t="s" s="2">
+      <c r="D520" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E520" t="s" s="2">
+      <c r="E520" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F520" t="s" s="2">
+      <c r="F520" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G520" t="s" s="2">
+      <c r="G520" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H520" t="s" s="2">
+      <c r="H520" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I520" t="s" s="2">
+      <c r="I520" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15183,10 +15195,10 @@
       <c r="I522">
         <f>((C522-C521)^2+(D522- D521)^2)^.5</f>
       </c>
-      <c r="J522" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K522" s="2" t="s">
+      <c r="J522" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K522" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L522" t="n">
@@ -15230,28 +15242,28 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="s" s="2">
+      <c r="A524" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B524" t="s" s="2">
+      <c r="B524" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C524" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D524" t="s" s="2">
+      <c r="C524" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D524" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E524" t="s" s="2">
+      <c r="E524" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F524" t="s" s="2">
+      <c r="F524" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G524" t="s" s="2">
+      <c r="G524" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H524" t="s" s="2">
+      <c r="H524" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15276,28 +15288,28 @@
       </c>
     </row>
     <row r="526">
-      <c r="B526" t="s" s="2">
+      <c r="B526" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C526" t="s" s="2">
+      <c r="C526" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D526" t="s" s="2">
+      <c r="D526" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E526" t="s" s="2">
+      <c r="E526" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F526" t="s" s="2">
+      <c r="F526" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G526" t="s" s="2">
+      <c r="G526" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H526" t="s" s="2">
+      <c r="H526" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I526" t="s" s="2">
+      <c r="I526" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15356,10 +15368,10 @@
       <c r="I528">
         <f>((C528-C527)^2+(D528- D527)^2)^.5</f>
       </c>
-      <c r="J528" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K528" s="2" t="s">
+      <c r="J528" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K528" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L528" t="n">
@@ -15403,28 +15415,28 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="s" s="2">
+      <c r="A530" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B530" t="s" s="2">
+      <c r="B530" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C530" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D530" t="s" s="2">
+      <c r="C530" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D530" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E530" t="s" s="2">
+      <c r="E530" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F530" t="s" s="2">
+      <c r="F530" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G530" t="s" s="2">
+      <c r="G530" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H530" t="s" s="2">
+      <c r="H530" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15449,28 +15461,28 @@
       </c>
     </row>
     <row r="532">
-      <c r="B532" t="s" s="2">
+      <c r="B532" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C532" t="s" s="2">
+      <c r="C532" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D532" t="s" s="2">
+      <c r="D532" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E532" t="s" s="2">
+      <c r="E532" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F532" t="s" s="2">
+      <c r="F532" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G532" t="s" s="2">
+      <c r="G532" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H532" t="s" s="2">
+      <c r="H532" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I532" t="s" s="2">
+      <c r="I532" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15529,10 +15541,10 @@
       <c r="I534">
         <f>((C534-C533)^2+(D534- D533)^2)^.5</f>
       </c>
-      <c r="J534" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K534" s="2" t="s">
+      <c r="J534" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K534" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L534" t="n">
@@ -15576,28 +15588,28 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="s" s="2">
+      <c r="A536" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B536" t="s" s="2">
+      <c r="B536" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C536" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D536" t="s" s="2">
+      <c r="C536" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D536" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E536" t="s" s="2">
+      <c r="E536" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F536" t="s" s="2">
+      <c r="F536" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G536" t="s" s="2">
+      <c r="G536" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H536" t="s" s="2">
+      <c r="H536" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15622,28 +15634,28 @@
       </c>
     </row>
     <row r="538">
-      <c r="B538" t="s" s="2">
+      <c r="B538" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C538" t="s" s="2">
+      <c r="C538" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D538" t="s" s="2">
+      <c r="D538" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E538" t="s" s="2">
+      <c r="E538" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F538" t="s" s="2">
+      <c r="F538" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G538" t="s" s="2">
+      <c r="G538" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H538" t="s" s="2">
+      <c r="H538" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I538" t="s" s="2">
+      <c r="I538" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15702,10 +15714,10 @@
       <c r="I540">
         <f>((C540-C539)^2+(D540- D539)^2)^.5</f>
       </c>
-      <c r="J540" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K540" s="2" t="s">
+      <c r="J540" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K540" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L540" t="n">
@@ -15749,28 +15761,28 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="s" s="2">
+      <c r="A542" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B542" t="s" s="2">
+      <c r="B542" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C542" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D542" t="s" s="2">
+      <c r="C542" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D542" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E542" t="s" s="2">
+      <c r="E542" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F542" t="s" s="2">
+      <c r="F542" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G542" t="s" s="2">
+      <c r="G542" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H542" t="s" s="2">
+      <c r="H542" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15795,28 +15807,28 @@
       </c>
     </row>
     <row r="544">
-      <c r="B544" t="s" s="2">
+      <c r="B544" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C544" t="s" s="2">
+      <c r="C544" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D544" t="s" s="2">
+      <c r="D544" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E544" t="s" s="2">
+      <c r="E544" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F544" t="s" s="2">
+      <c r="F544" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G544" t="s" s="2">
+      <c r="G544" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H544" t="s" s="2">
+      <c r="H544" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I544" t="s" s="2">
+      <c r="I544" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15875,10 +15887,10 @@
       <c r="I546">
         <f>((C546-C545)^2+(D546- D545)^2)^.5</f>
       </c>
-      <c r="J546" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K546" s="2" t="s">
+      <c r="J546" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K546" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L546" t="n">
